--- a/experiments/results/results-all-4opt.xlsx
+++ b/experiments/results/results-all-4opt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milena Lengauer\Documents\Studium\Master\Masterarbeit\Auswertungen\Evaluations_Thesis\AllAlgorithms_4opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FBC6AC-1E19-498B-A1E3-24CB37EBFBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B6F05E-B25C-4EE4-8D55-142A72A2B243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Std. Dev. %</t>
-  </si>
-  <si>
     <t>Recovery Rate</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   <si>
     <t>Absolute RR - Std. Dev. %</t>
   </si>
+  <si>
+    <t>Var.Koeff.</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,13 +215,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -507,24 +500,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F928C562-0284-4C61-848C-62D414FC9D52}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -534,69 +527,67 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
@@ -652,7 +643,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
@@ -708,7 +699,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
@@ -765,7 +756,7 @@
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
@@ -821,7 +812,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
@@ -877,7 +868,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
@@ -933,7 +924,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
@@ -990,7 +981,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -999,7 +990,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1010,62 +1001,62 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1462,7 +1453,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1471,7 +1462,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="I25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1482,62 +1473,62 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="J26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1934,7 +1925,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1943,7 +1934,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="I37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -1954,62 +1945,62 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="J38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2406,30 +2397,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="A37:G37"/>
     <mergeCell ref="I37:O37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="M38:O38"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2440,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,7 +2494,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -2889,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -3243,7 +3234,7 @@
         <v>0.634549767421002</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -3275,7 +3266,7 @@
         <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -3629,7 +3620,7 @@
         <v>0.55484754024559602</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -3661,7 +3652,7 @@
         <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -6923,8 +6914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2456B3A-30FA-4921-9DE9-8470D3985088}">
   <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6984,7 +6975,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -7370,7 +7361,7 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -7724,7 +7715,7 @@
         <v>0.74518496816699198</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -7756,7 +7747,7 @@
         <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -8110,7 +8101,7 @@
         <v>0.66279983809119802</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -8142,7 +8133,7 @@
         <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -11404,8 +11395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D04E948-34F1-4E77-B6A3-A610B690F323}">
   <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11463,7 +11454,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -11849,7 +11840,7 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -12203,7 +12194,7 @@
         <v>0.69145122915954704</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -12235,7 +12226,7 @@
         <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -12589,7 +12580,7 @@
         <v>0.69263417337653299</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -12621,7 +12612,7 @@
         <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -15880,8 +15871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F9A15D-8B11-4DEC-B61C-69A0E6587E9C}">
   <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:E211"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15939,7 +15930,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -16325,7 +16316,7 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -16679,7 +16670,7 @@
         <v>0.75628749701730302</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -16711,7 +16702,7 @@
         <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -17065,7 +17056,7 @@
         <v>0.67435500592901598</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -17097,7 +17088,7 @@
         <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -20356,8 +20347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6514D-47FE-4B29-9BDD-A95D7DABE5FB}">
   <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20415,7 +20406,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -20801,7 +20792,7 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -21155,7 +21146,7 @@
         <v>0.79322385963589803</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -21187,7 +21178,7 @@
         <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -21541,7 +21532,7 @@
         <v>0.77113010201779397</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -21573,7 +21564,7 @@
         <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -24832,8 +24823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399D309C-A375-44B0-ACAF-D01517DCE955}">
   <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24894,7 +24885,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -25280,7 +25271,7 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -25634,7 +25625,7 @@
         <v>0.83052963960150195</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -25666,7 +25657,7 @@
         <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -26020,7 +26011,7 @@
         <v>0.78686406798912401</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -26052,7 +26043,7 @@
         <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
